--- a/data/comisiones/venta_2023_comisiones.xlsx
+++ b/data/comisiones/venta_2023_comisiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\comisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D931E57-0B98-4ED6-BCF2-FA751B414962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E35B4D-50B3-4E85-A236-20685C823D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31900" yWindow="4110" windowWidth="23020" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19470" yWindow="1530" windowWidth="11660" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos_com_2023" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Brenda Luz Acosta Lopez</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>bono</t>
+  </si>
+  <si>
+    <t>salesperson_id</t>
+  </si>
+  <si>
+    <t>salesperson_name</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -281,20 +289,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -345,6 +347,16 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,304 +676,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>205</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="3">
+        <v>1200567.44</v>
+      </c>
+      <c r="D2" s="3">
+        <v>12336.75</v>
+      </c>
+      <c r="E2" s="3">
+        <v>756619.8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8962.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>218</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>205</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="3">
+        <v>346733.12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3283.35</v>
+      </c>
+      <c r="E3" s="3">
+        <v>540410.56999999995</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4859.6099999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>210</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
-        <v>1200567.44</v>
-      </c>
-      <c r="D2" s="5">
-        <v>12336.75</v>
-      </c>
-      <c r="E2" s="5">
-        <v>756619.8</v>
-      </c>
-      <c r="F2" s="5">
-        <v>8962.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>218</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="3">
+        <v>1561072.02</v>
+      </c>
+      <c r="D4" s="3">
+        <v>16723.57</v>
+      </c>
+      <c r="E4" s="3">
+        <v>845081.98</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10101.280000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>221</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
-        <v>346733.12</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3283.35</v>
-      </c>
-      <c r="E3" s="5">
-        <v>540410.56999999995</v>
-      </c>
-      <c r="F3" s="6">
-        <v>4859.6099999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>210</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="3">
+        <v>962898.57</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8043.62</v>
+      </c>
+      <c r="E5" s="3">
+        <v>670175.56999999995</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5349.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>224</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
-        <v>1561072.02</v>
-      </c>
-      <c r="D4" s="5">
-        <v>16723.57</v>
-      </c>
-      <c r="E4" s="5">
-        <v>845081.98</v>
-      </c>
-      <c r="F4" s="5">
-        <v>10101.280000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>221</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="3">
+        <v>248271.55</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1178.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>202762.89</v>
+      </c>
+      <c r="F6" s="3">
+        <v>922.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>206</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
-        <v>962898.57</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8043.62</v>
-      </c>
-      <c r="E5" s="5">
-        <v>670175.56999999995</v>
-      </c>
-      <c r="F5" s="6">
-        <v>5349.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>224</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="3">
+        <v>1603457.64</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7086.81</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1529760.13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6942.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>211</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
-        <v>248271.55</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1178.2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>202762.89</v>
-      </c>
-      <c r="F6" s="5">
-        <v>922.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>206</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="3">
+        <v>1412102.93</v>
+      </c>
+      <c r="D8" s="3">
+        <v>17744.849999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1114001.03</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16281.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>216</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
-        <v>1603457.64</v>
-      </c>
-      <c r="D7" s="5">
-        <v>7086.81</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1529760.13</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6942.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>211</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="3">
+        <v>607513.73</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4916.97</v>
+      </c>
+      <c r="E9" s="4">
+        <v>450516.61</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4144.3900000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>227</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
-        <v>1412102.93</v>
-      </c>
-      <c r="D8" s="5">
-        <v>17744.849999999999</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1114001.03</v>
-      </c>
-      <c r="F8" s="5">
-        <v>16281.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>216</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C10" s="3">
+        <v>231786.79</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2526.84</v>
+      </c>
+      <c r="E10" s="4">
+        <v>229339.68</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2583.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>212</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
-        <v>607513.73</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4916.97</v>
-      </c>
-      <c r="E9" s="6">
-        <v>450516.61</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4144.3900000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>227</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="3">
+        <v>735239.37</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5314.66</v>
+      </c>
+      <c r="E11" s="3">
+        <v>437679.98</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3811.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>209</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
-        <v>231786.79</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2526.84</v>
-      </c>
-      <c r="E10" s="6">
-        <v>229339.68</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2583.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>212</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="3">
+        <v>2074378.23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9336.2199999999993</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1857873.22</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8707.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>214</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <v>735239.37</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5314.66</v>
-      </c>
-      <c r="E11" s="5">
-        <v>437679.98</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3811.39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>209</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="3">
+        <v>44277.919999999998</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>213</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
-        <v>2074378.23</v>
-      </c>
-      <c r="D12" s="6">
-        <v>9336.2199999999993</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1857873.22</v>
-      </c>
-      <c r="F12" s="6">
-        <v>8707.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>214</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C14" s="3">
+        <v>779812.42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8668.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>909055.9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10872.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>222</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
-        <v>44277.919999999998</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>213</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5">
-        <v>779812.42</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8668.5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>909055.9</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10872.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>222</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>113518.33</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>630.23</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>235403.23</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>2558.06</v>
       </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -983,194 +998,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14">
         <v>0</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>99999.99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="A3" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14">
         <v>100000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>199999.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B4" s="14">
         <v>10000</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>200000</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>299999.99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B5" s="14">
         <v>15000</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>300000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>399999.99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B6" s="14">
         <v>20000</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>400000</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>499999.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B7" s="14">
         <v>25000</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>500000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>599999.99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B8" s="14">
         <v>30000</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>600000</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>699999.99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B9" s="14">
         <v>35000</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>700000</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>799999.99</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B10" s="14">
         <v>40000</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>800000</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>899999.99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B11" s="14">
         <v>45000</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>900000</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>999999.99</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="B12" s="14">
         <v>100000</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>1000000</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1191,194 +1206,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14">
         <v>0</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>249999.99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>0.01</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14">
         <v>250000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>499999.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B4" s="14">
         <v>10000</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>500000</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>749999.99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B5" s="14">
         <v>15000</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>750000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>999999.99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B6" s="14">
         <v>20000</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1000000</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>1249999.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B7" s="14">
         <v>25000</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1250000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>1499999.99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B8" s="14">
         <v>30000</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1500000</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>1749999.99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B9" s="14">
         <v>35000</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>1750000</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>1999999.99</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B10" s="14">
         <v>40000</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>2000000</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>2249999.9900000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B11" s="14">
         <v>45000</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>2250000</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>2499999.9900000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="B12" s="14">
         <v>100000</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>2500000</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,218 +1411,218 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16">
         <v>0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <v>19999.990000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="A3" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16">
         <v>20000</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>39999.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="A4" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B4" s="16">
         <v>2000</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>40000</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>59999.99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="A5" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B5" s="16">
         <v>4000</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>60000</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>79999.990000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="A6" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B6" s="16">
         <v>6000</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>80000</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>99999.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B7" s="16">
         <v>8000</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>100000</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>119999.99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="A8" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B8" s="16">
         <v>10000</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>120000</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>139999.99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B9" s="16">
         <v>12000</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>140000</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>159999.99</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B10" s="16">
         <v>14000</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>160000</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>179999.99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B11" s="16">
         <v>16000</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>180000</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>199999.99</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B12" s="16">
         <v>18000</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>200000</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>239999.99</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B13" s="16">
         <v>20000</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>240000</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>279999.99</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B14" s="16">
         <v>22000</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <v>280000</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>319999.99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="B15" s="16">
         <v>24000</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>320000</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1625,218 +1640,218 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16">
         <v>0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <v>49999.99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>0.01</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16">
         <v>50000</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>99999.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>0.01</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>4000</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>100000</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>149999.99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="A5" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B5" s="16">
         <v>6000</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>150000</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>199999.99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="A6" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B6" s="16">
         <v>8000</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>200000</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>249999.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B7" s="16">
         <v>10000</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>250000</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>299999.99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="A8" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B8" s="16">
         <v>12000</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>300000</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>349999.99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B9" s="16">
         <v>14000</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>350000</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>399999.99</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B10" s="16">
         <v>16000</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>400000</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>449999.99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B11" s="16">
         <v>18000</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>450000</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>499999.99</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B12" s="16">
         <v>20000</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>500000</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>549999.99</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B13" s="16">
         <v>22000</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>550000</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>599999.99</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B14" s="16">
         <v>24000</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <v>600000</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>649999.99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B15" s="16">
         <v>26000</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>650000</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
